--- a/AAII_Financials/Quarterly/POSH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/POSH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
   <si>
     <t>POSH</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,155 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E8" s="3">
         <v>69300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>68800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>66900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>57100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>54700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>50000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>47600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>52900</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E9" s="3">
         <v>23500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>21500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>19900</v>
-      </c>
-      <c r="G9" s="3">
-        <v>18400</v>
       </c>
       <c r="H9" s="3">
         <v>18400</v>
       </c>
       <c r="I9" s="3">
+        <v>18400</v>
+      </c>
+      <c r="J9" s="3">
         <v>15800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>14900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>53100</v>
+      </c>
+      <c r="E10" s="3">
         <v>45800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>47300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>47000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>38700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>36300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>34200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>32700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>37900</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E12" s="3">
         <v>7800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>8100</v>
-      </c>
-      <c r="F12" s="3">
-        <v>7100</v>
       </c>
       <c r="G12" s="3">
         <v>7100</v>
       </c>
       <c r="H12" s="3">
-        <v>6300</v>
+        <v>7100</v>
       </c>
       <c r="I12" s="3">
         <v>6300</v>
       </c>
       <c r="J12" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K12" s="3">
         <v>6200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -870,37 +887,43 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>1600</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -911,25 +934,28 @@
         <v>800</v>
       </c>
       <c r="F15" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G15" s="3">
         <v>700</v>
       </c>
       <c r="H15" s="3">
+        <v>700</v>
+      </c>
+      <c r="I15" s="3">
         <v>600</v>
-      </c>
-      <c r="I15" s="3">
-        <v>500</v>
       </c>
       <c r="J15" s="3">
         <v>500</v>
       </c>
       <c r="K15" s="3">
+        <v>500</v>
+      </c>
+      <c r="L15" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>103300</v>
+      </c>
+      <c r="E17" s="3">
         <v>67800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>57100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>45500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>68300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>69800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>62700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>61100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>61500</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="E18" s="3">
         <v>1500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>11700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>21400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-11200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-15100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-12700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-13500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1009,66 +1042,73 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-52300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-73800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2900</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="3">
         <v>-12600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-11000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,45 +1136,51 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-74600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>10900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>21200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-10900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-14700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-12400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-13000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8400</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
-      </c>
-      <c r="E24" s="3">
-        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
@@ -1143,7 +1189,7 @@
         <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1152,10 +1198,13 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-74500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>10800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>21100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-11000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-14700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-12400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-13100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-74500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>21100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-14700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-12400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-13100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>52300</v>
+      </c>
+      <c r="E32" s="3">
         <v>5200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-74500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>21100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-14700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-12400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-13100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-74500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>21100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-14700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-12400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-13100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,20 +1619,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>551400</v>
+      </c>
+      <c r="E41" s="3">
         <v>235800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>216600</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>16</v>
       </c>
@@ -1562,20 +1649,23 @@
       <c r="K41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E42" s="3">
         <v>26200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>30400</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>16</v>
       </c>
@@ -1591,8 +1681,11 @@
       <c r="K42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1620,8 +1713,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,20 +1745,23 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E45" s="3">
         <v>7900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8400</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>16</v>
       </c>
@@ -1678,20 +1777,23 @@
       <c r="K45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>586000</v>
+      </c>
+      <c r="E46" s="3">
         <v>270000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>255400</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>16</v>
       </c>
@@ -1707,8 +1809,11 @@
       <c r="K46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,20 +1841,23 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E48" s="3">
         <v>8400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8900</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>16</v>
       </c>
@@ -1765,8 +1873,11 @@
       <c r="K48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,20 +1969,23 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E52" s="3">
         <v>7000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5300</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>16</v>
       </c>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,20 +2033,23 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>597500</v>
+      </c>
+      <c r="E54" s="3">
         <v>285400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>269600</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>16</v>
       </c>
@@ -1939,8 +2065,11 @@
       <c r="K54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,20 +2095,21 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E57" s="3">
         <v>12300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>13300</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>16</v>
       </c>
@@ -1994,8 +2125,11 @@
       <c r="K57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,20 +2157,23 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>166700</v>
+      </c>
+      <c r="E59" s="3">
         <v>153000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>139300</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>16</v>
       </c>
@@ -2052,20 +2189,23 @@
       <c r="K59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>182200</v>
+      </c>
+      <c r="E60" s="3">
         <v>165300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>152700</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>16</v>
       </c>
@@ -2081,20 +2221,23 @@
       <c r="K60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>55400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>50800</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2110,20 +2253,23 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E62" s="3">
         <v>8300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7000</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>16</v>
       </c>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,20 +2381,23 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>186800</v>
+      </c>
+      <c r="E66" s="3">
         <v>229000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>210500</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>16</v>
       </c>
@@ -2255,8 +2413,11 @@
       <c r="K66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,19 +2491,22 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>156200</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
         <v>156200</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>156200</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,20 +2555,23 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-201000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-126500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-122400</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>16</v>
       </c>
@@ -2413,8 +2587,11 @@
       <c r="K72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,20 +2683,23 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>410700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-99800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-97100</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>16</v>
       </c>
@@ -2529,8 +2715,11 @@
       <c r="K76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-74500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>21100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-14700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-12400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-13100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,16 +2832,17 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>800</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>16</v>
+      <c r="E83" s="3">
+        <v>800</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>16</v>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,17 +3022,20 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E89" s="3">
         <v>16100</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F89" s="3" t="s">
         <v>16</v>
       </c>
@@ -2837,8 +3054,11 @@
       <c r="K89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,16 +3070,17 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>16</v>
+      <c r="E91" s="3">
+        <v>-400</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>16</v>
@@ -2879,8 +3100,11 @@
       <c r="K91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,17 +3164,20 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E94" s="3">
         <v>3700</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>16</v>
       </c>
@@ -2966,8 +3196,11 @@
       <c r="K94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,17 +3338,20 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>293200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-600</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>16</v>
       </c>
@@ -3124,16 +3370,19 @@
       <c r="K100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>16</v>
+      <c r="E101" s="3">
+        <v>0</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>16</v>
@@ -3153,17 +3402,20 @@
       <c r="K101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>315600</v>
+      </c>
+      <c r="E102" s="3">
         <v>19300</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F102" s="3" t="s">
         <v>16</v>
       </c>
@@ -3180,6 +3432,9 @@
         <v>16</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/POSH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/POSH_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,168 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>81800</v>
+      </c>
+      <c r="E8" s="3">
         <v>81000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>69300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>68800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>66900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>57100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>54700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>50000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>47600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>52900</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E9" s="3">
         <v>27900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>23500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>21500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>19900</v>
-      </c>
-      <c r="H9" s="3">
-        <v>18400</v>
       </c>
       <c r="I9" s="3">
         <v>18400</v>
       </c>
       <c r="J9" s="3">
+        <v>18400</v>
+      </c>
+      <c r="K9" s="3">
         <v>15800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E10" s="3">
         <v>53100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>45800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>47300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>47000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>38700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>36300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>34200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>32700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>37900</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,40 +839,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E12" s="3">
         <v>18800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>8100</v>
-      </c>
-      <c r="G12" s="3">
-        <v>7100</v>
       </c>
       <c r="H12" s="3">
         <v>7100</v>
       </c>
       <c r="I12" s="3">
-        <v>6300</v>
+        <v>7100</v>
       </c>
       <c r="J12" s="3">
         <v>6300</v>
       </c>
       <c r="K12" s="3">
+        <v>6300</v>
+      </c>
+      <c r="L12" s="3">
         <v>6200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,17 +907,20 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>1600</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>16</v>
       </c>
@@ -916,14 +936,17 @@
       <c r="J14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -937,25 +960,28 @@
         <v>800</v>
       </c>
       <c r="G15" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H15" s="3">
         <v>700</v>
       </c>
       <c r="I15" s="3">
+        <v>700</v>
+      </c>
+      <c r="J15" s="3">
         <v>600</v>
-      </c>
-      <c r="J15" s="3">
-        <v>500</v>
       </c>
       <c r="K15" s="3">
         <v>500</v>
       </c>
       <c r="L15" s="3">
+        <v>500</v>
+      </c>
+      <c r="M15" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +991,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>84600</v>
+      </c>
+      <c r="E17" s="3">
         <v>103300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>67800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>57100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>45500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>68300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>69800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>62700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>61100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>61500</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-22300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>11700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>21400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-11200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-15100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-13500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1043,72 +1076,79 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-52300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-5200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-73800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2900</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="3">
         <v>-12600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-11000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,51 +1179,57 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-74600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>10900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>21200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-10900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-14700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8400</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
-      </c>
-      <c r="F24" s="3">
-        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
@@ -1192,7 +1238,7 @@
         <v>100</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1201,10 +1247,13 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-74500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>10800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>21100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-14700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-13100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-74500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>21100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-14700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-13100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1494,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>52300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>5200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-74500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>21100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-14700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-13100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-74500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>21100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-14700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-13100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,23 +1706,24 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>573400</v>
+      </c>
+      <c r="E41" s="3">
         <v>551400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>235800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>216600</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>16</v>
       </c>
@@ -1652,23 +1739,26 @@
       <c r="L41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E42" s="3">
         <v>23300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>26200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>30400</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>16</v>
       </c>
@@ -1684,8 +1774,11 @@
       <c r="L42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1716,8 +1809,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,23 +1844,26 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E45" s="3">
         <v>11300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8400</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>16</v>
       </c>
@@ -1780,23 +1879,26 @@
       <c r="L45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>588900</v>
+      </c>
+      <c r="E46" s="3">
         <v>586000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>270000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>255400</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>16</v>
       </c>
@@ -1812,8 +1914,11 @@
       <c r="L46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,23 +1949,26 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E48" s="3">
         <v>8300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8900</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>16</v>
       </c>
@@ -1876,8 +1984,11 @@
       <c r="L48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2019,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,23 +2089,26 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E52" s="3">
         <v>3200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5300</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2004,8 +2124,11 @@
       <c r="L52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,23 +2159,26 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>599500</v>
+      </c>
+      <c r="E54" s="3">
         <v>597500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>285400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>269600</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2068,8 +2194,11 @@
       <c r="L54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,23 +2226,24 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E57" s="3">
         <v>15600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>12300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>13300</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>16</v>
       </c>
@@ -2128,8 +2259,11 @@
       <c r="L57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2160,23 +2294,26 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>163900</v>
+      </c>
+      <c r="E59" s="3">
         <v>166700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>153000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>139300</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>16</v>
       </c>
@@ -2192,23 +2329,26 @@
       <c r="L59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>179100</v>
+      </c>
+      <c r="E60" s="3">
         <v>182200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>165300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>152700</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>16</v>
       </c>
@@ -2224,8 +2364,11 @@
       <c r="L60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2233,14 +2376,14 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>55400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>50800</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2256,23 +2399,26 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E62" s="3">
         <v>4600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7000</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>16</v>
       </c>
@@ -2288,8 +2434,11 @@
       <c r="L62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,23 +2539,26 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>183400</v>
+      </c>
+      <c r="E66" s="3">
         <v>186800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>229000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>210500</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>16</v>
       </c>
@@ -2416,8 +2574,11 @@
       <c r="L66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2503,13 +2671,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>156200</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
         <v>156200</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>156200</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,23 +2729,26 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-204000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-201000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-126500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-122400</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>16</v>
       </c>
@@ -2590,8 +2764,11 @@
       <c r="L72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,23 +2869,26 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>416100</v>
+      </c>
+      <c r="E76" s="3">
         <v>410700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-99800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-97100</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>16</v>
       </c>
@@ -2718,8 +2904,11 @@
       <c r="L76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-74500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>21100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-14700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-13100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3031,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2844,8 +3043,8 @@
       <c r="E83" s="3">
         <v>800</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>16</v>
+      <c r="F83" s="3">
+        <v>800</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>16</v>
@@ -2865,8 +3064,11 @@
       <c r="L83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,20 +3239,23 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E89" s="3">
         <v>19900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>16100</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>16</v>
       </c>
@@ -3057,8 +3274,11 @@
       <c r="L89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3291,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3082,8 +3303,8 @@
       <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>16</v>
+      <c r="F91" s="3">
+        <v>-400</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>16</v>
@@ -3103,8 +3324,11 @@
       <c r="L91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,20 +3394,23 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E94" s="3">
         <v>2500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>3700</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>16</v>
       </c>
@@ -3199,8 +3429,11 @@
       <c r="L94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,20 +3584,23 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>293200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-600</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>16</v>
       </c>
@@ -3373,8 +3619,11 @@
       <c r="L100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3384,8 +3633,8 @@
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>16</v>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>16</v>
@@ -3405,20 +3654,23 @@
       <c r="L101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E102" s="3">
         <v>315600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>19300</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>16</v>
       </c>
@@ -3435,6 +3687,9 @@
         <v>16</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/POSH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/POSH_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>79700</v>
+      </c>
+      <c r="E8" s="3">
         <v>81800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>81000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>69300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>68800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>66900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>57100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>54700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>50000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>47600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>52900</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E9" s="3">
         <v>25700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>27900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>23500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>21500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>19900</v>
-      </c>
-      <c r="I9" s="3">
-        <v>18400</v>
       </c>
       <c r="J9" s="3">
         <v>18400</v>
       </c>
       <c r="K9" s="3">
+        <v>18400</v>
+      </c>
+      <c r="L9" s="3">
         <v>15800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>54400</v>
+      </c>
+      <c r="E10" s="3">
         <v>56100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>53100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>45800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>47300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>47000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>38700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>36300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>34200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>32700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>37900</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,43 +853,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E12" s="3">
         <v>12400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>18800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>8100</v>
-      </c>
-      <c r="H12" s="3">
-        <v>7100</v>
       </c>
       <c r="I12" s="3">
         <v>7100</v>
       </c>
       <c r="J12" s="3">
-        <v>6300</v>
+        <v>7100</v>
       </c>
       <c r="K12" s="3">
         <v>6300</v>
       </c>
       <c r="L12" s="3">
+        <v>6300</v>
+      </c>
+      <c r="M12" s="3">
         <v>6200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -919,11 +939,11 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1600</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>16</v>
       </c>
@@ -939,14 +959,17 @@
       <c r="K14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -963,25 +986,28 @@
         <v>800</v>
       </c>
       <c r="H15" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I15" s="3">
         <v>700</v>
       </c>
       <c r="J15" s="3">
+        <v>700</v>
+      </c>
+      <c r="K15" s="3">
         <v>600</v>
-      </c>
-      <c r="K15" s="3">
-        <v>500</v>
       </c>
       <c r="L15" s="3">
         <v>500</v>
       </c>
       <c r="M15" s="3">
+        <v>500</v>
+      </c>
+      <c r="N15" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>86900</v>
+      </c>
+      <c r="E17" s="3">
         <v>84600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>103300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>67800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>57100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>45500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>68300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>69800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>62700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>61100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>61500</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-22300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>11700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>21400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-11200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-15100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-13500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1077,78 +1110,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-52300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-73800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2900</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="3">
         <v>-12600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-11000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,43 +1222,49 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-74600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>10900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>21200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-10900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-14700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-13000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8400</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1226,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
-      </c>
-      <c r="G24" s="3">
-        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
@@ -1241,7 +1287,7 @@
         <v>100</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1250,10 +1296,13 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-74500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>10800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>21100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-14700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-13100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-74500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>21100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-11000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-14700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-13100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>52300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-74500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>21100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-14700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-13100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-74500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>21100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-14700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-13100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,26 +1793,27 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>589000</v>
+      </c>
+      <c r="E41" s="3">
         <v>573400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>551400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>235800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>216600</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>16</v>
       </c>
@@ -1742,26 +1829,29 @@
       <c r="M41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>6100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>23300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>26200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>30400</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>16</v>
       </c>
@@ -1777,8 +1867,11 @@
       <c r="M42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1812,8 +1905,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,26 +1943,29 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E45" s="3">
         <v>9400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8400</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>16</v>
       </c>
@@ -1882,26 +1981,29 @@
       <c r="M45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>598400</v>
+      </c>
+      <c r="E46" s="3">
         <v>588900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>586000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>270000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>255400</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>16</v>
       </c>
@@ -1917,8 +2019,11 @@
       <c r="M46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,8 +2057,11 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1961,17 +2069,17 @@
         <v>7900</v>
       </c>
       <c r="E48" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F48" s="3">
         <v>8300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8900</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>16</v>
       </c>
@@ -1987,8 +2095,11 @@
       <c r="M48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,26 +2209,29 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E52" s="3">
         <v>2600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5300</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2127,8 +2247,11 @@
       <c r="M52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,26 +2285,29 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>608100</v>
+      </c>
+      <c r="E54" s="3">
         <v>599500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>597500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>285400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>269600</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2197,8 +2323,11 @@
       <c r="M54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,26 +2357,27 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E57" s="3">
         <v>15100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>15600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>12300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>13300</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>16</v>
       </c>
@@ -2262,8 +2393,11 @@
       <c r="M57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2297,26 +2431,29 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>175400</v>
+      </c>
+      <c r="E59" s="3">
         <v>163900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>166700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>153000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>139300</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>16</v>
       </c>
@@ -2332,26 +2469,29 @@
       <c r="M59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>186000</v>
+      </c>
+      <c r="E60" s="3">
         <v>179100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>182200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>165300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>152700</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>16</v>
       </c>
@@ -2367,8 +2507,11 @@
       <c r="M60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2379,14 +2522,14 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>55400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>50800</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2402,26 +2545,29 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E62" s="3">
         <v>4400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7000</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>16</v>
       </c>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,26 +2697,29 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>189800</v>
+      </c>
+      <c r="E66" s="3">
         <v>183400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>186800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>229000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>210500</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>16</v>
       </c>
@@ -2577,8 +2735,11 @@
       <c r="M66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2674,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>156200</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
         <v>156200</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>156200</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,26 +2903,29 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-211200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-204000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-201000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-126500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-122400</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>16</v>
       </c>
@@ -2767,8 +2941,11 @@
       <c r="M72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,26 +3055,29 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>418200</v>
+      </c>
+      <c r="E76" s="3">
         <v>416100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>410700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-99800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-97100</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>16</v>
       </c>
@@ -2907,8 +3093,11 @@
       <c r="M76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-74500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>21100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-14700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-13100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3230,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3046,8 +3245,8 @@
       <c r="F83" s="3">
         <v>800</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>16</v>
+      <c r="G83" s="3">
+        <v>800</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>16</v>
@@ -3067,8 +3266,11 @@
       <c r="M83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,23 +3456,26 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E89" s="3">
         <v>5300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>19900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>16100</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>16</v>
       </c>
@@ -3277,8 +3494,11 @@
       <c r="M89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,13 +3512,14 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-400</v>
+        <v>-700</v>
       </c>
       <c r="E91" s="3">
         <v>-400</v>
@@ -3306,8 +3527,8 @@
       <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>16</v>
+      <c r="G91" s="3">
+        <v>-400</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>16</v>
@@ -3327,8 +3548,11 @@
       <c r="M91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,23 +3624,26 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E94" s="3">
         <v>16700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>2500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>3700</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>16</v>
       </c>
@@ -3432,8 +3662,11 @@
       <c r="M94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,23 +3830,26 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>293200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-600</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>16</v>
       </c>
@@ -3622,13 +3868,16 @@
       <c r="M100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -3636,8 +3885,8 @@
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>16</v>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>16</v>
@@ -3657,23 +3906,26 @@
       <c r="M101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E102" s="3">
         <v>22000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>315600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>19300</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>16</v>
       </c>
@@ -3690,6 +3942,9 @@
         <v>16</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/POSH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/POSH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
   <si>
     <t>POSH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,193 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>83600</v>
+      </c>
+      <c r="E8" s="3">
         <v>79700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>81800</v>
       </c>
-      <c r="F8" s="3">
-        <v>81000</v>
-      </c>
       <c r="G8" s="3">
-        <v>69300</v>
+        <v>80700</v>
       </c>
       <c r="H8" s="3">
         <v>68800</v>
       </c>
       <c r="I8" s="3">
+        <v>68800</v>
+      </c>
+      <c r="J8" s="3">
         <v>66900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>57100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>54700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>50000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>47600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>52900</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E9" s="3">
         <v>25300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>25700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>27900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>23500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>21500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>19900</v>
-      </c>
-      <c r="J9" s="3">
-        <v>18400</v>
       </c>
       <c r="K9" s="3">
         <v>18400</v>
       </c>
       <c r="L9" s="3">
+        <v>18400</v>
+      </c>
+      <c r="M9" s="3">
         <v>15800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E10" s="3">
         <v>54400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>56100</v>
       </c>
-      <c r="F10" s="3">
-        <v>53100</v>
-      </c>
       <c r="G10" s="3">
-        <v>45800</v>
+        <v>52800</v>
       </c>
       <c r="H10" s="3">
+        <v>45300</v>
+      </c>
+      <c r="I10" s="3">
         <v>47300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>47000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>38700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>36300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>34200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>32700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>37900</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,46 +866,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E12" s="3">
         <v>12300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>12400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>18800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>8100</v>
-      </c>
-      <c r="I12" s="3">
-        <v>7100</v>
       </c>
       <c r="J12" s="3">
         <v>7100</v>
       </c>
       <c r="K12" s="3">
-        <v>6300</v>
+        <v>7100</v>
       </c>
       <c r="L12" s="3">
         <v>6300</v>
       </c>
       <c r="M12" s="3">
+        <v>6300</v>
+      </c>
+      <c r="N12" s="3">
         <v>6200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -930,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -942,11 +961,11 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1600</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>16</v>
       </c>
@@ -962,19 +981,22 @@
       <c r="L14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E15" s="3">
         <v>800</v>
@@ -989,25 +1011,28 @@
         <v>800</v>
       </c>
       <c r="I15" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J15" s="3">
         <v>700</v>
       </c>
       <c r="K15" s="3">
+        <v>700</v>
+      </c>
+      <c r="L15" s="3">
         <v>600</v>
-      </c>
-      <c r="L15" s="3">
-        <v>500</v>
       </c>
       <c r="M15" s="3">
         <v>500</v>
       </c>
       <c r="N15" s="3">
+        <v>500</v>
+      </c>
+      <c r="O15" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>97300</v>
+      </c>
+      <c r="E17" s="3">
         <v>86900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>84600</v>
       </c>
-      <c r="F17" s="3">
-        <v>103300</v>
-      </c>
       <c r="G17" s="3">
-        <v>67800</v>
+        <v>102500</v>
       </c>
       <c r="H17" s="3">
+        <v>65500</v>
+      </c>
+      <c r="I17" s="3">
         <v>57100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>45500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>68300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>69800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>62700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>61100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>61500</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-7200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2800</v>
       </c>
-      <c r="F18" s="3">
-        <v>-22300</v>
-      </c>
       <c r="G18" s="3">
-        <v>1500</v>
+        <v>-21800</v>
       </c>
       <c r="H18" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I18" s="3">
         <v>11700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>21400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-11200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-15100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-12700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-13500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1111,63 +1143,67 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>-52300</v>
-      </c>
       <c r="G20" s="3">
-        <v>-5200</v>
+        <v>-52200</v>
       </c>
       <c r="H20" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-6400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2100</v>
       </c>
-      <c r="F21" s="3">
-        <v>-73800</v>
-      </c>
       <c r="G21" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>16</v>
+        <v>-73200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-1100</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>16</v>
@@ -1175,20 +1211,23 @@
       <c r="J21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="3">
         <v>-12600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-11000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,63 +1264,69 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3000</v>
       </c>
-      <c r="F23" s="3">
-        <v>-74600</v>
-      </c>
       <c r="G23" s="3">
-        <v>-3600</v>
+        <v>-74000</v>
       </c>
       <c r="H23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I23" s="3">
         <v>10900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>21200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-14700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-12400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-13000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8400</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
@@ -1290,7 +1335,7 @@
         <v>100</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1299,10 +1344,13 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3000</v>
       </c>
-      <c r="F26" s="3">
-        <v>-74500</v>
-      </c>
       <c r="G26" s="3">
-        <v>-4100</v>
+        <v>-74100</v>
       </c>
       <c r="H26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I26" s="3">
         <v>10800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>21100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-14700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-12400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-13100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3000</v>
       </c>
-      <c r="F27" s="3">
-        <v>-74500</v>
-      </c>
       <c r="G27" s="3">
-        <v>-4100</v>
+        <v>-74100</v>
       </c>
       <c r="H27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-2000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>21100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-11000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-14700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-12400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-13100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>52300</v>
-      </c>
       <c r="G32" s="3">
-        <v>5200</v>
+        <v>52200</v>
       </c>
       <c r="H32" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I32" s="3">
         <v>800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3000</v>
       </c>
-      <c r="F33" s="3">
-        <v>-74500</v>
-      </c>
       <c r="G33" s="3">
-        <v>-4100</v>
+        <v>-74100</v>
       </c>
       <c r="H33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-2000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>21100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-11000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-14700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-12400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-13100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3000</v>
       </c>
-      <c r="F35" s="3">
-        <v>-74500</v>
-      </c>
       <c r="G35" s="3">
-        <v>-4100</v>
+        <v>-74100</v>
       </c>
       <c r="H35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-2000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>21100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-11000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-14700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-12400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-13100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,29 +1879,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>581500</v>
+      </c>
+      <c r="E41" s="3">
         <v>589000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>573400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>551400</v>
       </c>
-      <c r="G41" s="3">
-        <v>235800</v>
-      </c>
       <c r="H41" s="3">
+        <v>238900</v>
+      </c>
+      <c r="I41" s="3">
         <v>216600</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>16</v>
       </c>
@@ -1832,8 +1918,11 @@
       <c r="N41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1841,20 +1930,20 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>6100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>23300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>26200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>30400</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>16</v>
       </c>
@@ -1870,8 +1959,11 @@
       <c r="N42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1908,8 +2000,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,29 +2041,32 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E45" s="3">
         <v>9300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8400</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>16</v>
       </c>
@@ -1984,29 +2082,32 @@
       <c r="N45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>591300</v>
+      </c>
+      <c r="E46" s="3">
         <v>598400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>588900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>586000</v>
       </c>
-      <c r="G46" s="3">
-        <v>270000</v>
-      </c>
       <c r="H46" s="3">
+        <v>273000</v>
+      </c>
+      <c r="I46" s="3">
         <v>255400</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2022,8 +2123,11 @@
       <c r="N46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,29 +2164,32 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7900</v>
+        <v>7400</v>
       </c>
       <c r="E48" s="3">
         <v>7900</v>
       </c>
       <c r="F48" s="3">
+        <v>7900</v>
+      </c>
+      <c r="G48" s="3">
         <v>8300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8900</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2098,31 +2205,34 @@
       <c r="N48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>8400</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2136,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,29 +2328,32 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E52" s="3">
         <v>1800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5300</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2250,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,29 +2410,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>608700</v>
+      </c>
+      <c r="E54" s="3">
         <v>608100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>599500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>597500</v>
       </c>
-      <c r="G54" s="3">
-        <v>285400</v>
-      </c>
       <c r="H54" s="3">
+        <v>288500</v>
+      </c>
+      <c r="I54" s="3">
         <v>269600</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2326,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,29 +2487,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
         <v>10600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>15100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>15600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>12300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>13300</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>16</v>
       </c>
@@ -2396,8 +2526,11 @@
       <c r="N57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2434,29 +2567,32 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>186200</v>
+      </c>
+      <c r="E59" s="3">
         <v>175400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>163900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>166700</v>
       </c>
-      <c r="G59" s="3">
-        <v>153000</v>
-      </c>
       <c r="H59" s="3">
+        <v>153100</v>
+      </c>
+      <c r="I59" s="3">
         <v>139300</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>16</v>
       </c>
@@ -2472,29 +2608,32 @@
       <c r="N59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>187800</v>
+      </c>
+      <c r="E60" s="3">
         <v>186000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>179100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>182200</v>
       </c>
-      <c r="G60" s="3">
-        <v>165300</v>
-      </c>
       <c r="H60" s="3">
+        <v>165400</v>
+      </c>
+      <c r="I60" s="3">
         <v>152700</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>16</v>
       </c>
@@ -2510,8 +2649,11 @@
       <c r="N60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2525,14 +2667,14 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>55400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>50800</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2548,29 +2690,32 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E62" s="3">
         <v>3800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7000</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>16</v>
       </c>
@@ -2586,8 +2731,11 @@
       <c r="N62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,29 +2854,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>191100</v>
+      </c>
+      <c r="E66" s="3">
         <v>189800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>183400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>186800</v>
       </c>
-      <c r="G66" s="3">
-        <v>229000</v>
-      </c>
       <c r="H66" s="3">
+        <v>229100</v>
+      </c>
+      <c r="I66" s="3">
         <v>210500</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>16</v>
       </c>
@@ -2738,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2845,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>156200</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>156200</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>156200</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2868,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,29 +3076,32 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-221800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-211200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-204000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-201000</v>
       </c>
-      <c r="G72" s="3">
-        <v>-126500</v>
-      </c>
       <c r="H72" s="3">
+        <v>-123500</v>
+      </c>
+      <c r="I72" s="3">
         <v>-122400</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>16</v>
       </c>
@@ -2944,8 +3117,11 @@
       <c r="N72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,29 +3240,32 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>417600</v>
+      </c>
+      <c r="E76" s="3">
         <v>418200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>416100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>410700</v>
       </c>
-      <c r="G76" s="3">
-        <v>-99800</v>
-      </c>
       <c r="H76" s="3">
+        <v>-96800</v>
+      </c>
+      <c r="I76" s="3">
         <v>-97100</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>16</v>
       </c>
@@ -3096,8 +3281,11 @@
       <c r="N76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3000</v>
       </c>
-      <c r="F81" s="3">
-        <v>-74500</v>
-      </c>
       <c r="G81" s="3">
-        <v>-4100</v>
+        <v>-74100</v>
       </c>
       <c r="H81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-2000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>21100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-11000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-14700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-12400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-13100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,13 +3428,14 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E83" s="3">
         <v>800</v>
@@ -3248,8 +3446,8 @@
       <c r="G83" s="3">
         <v>800</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>16</v>
+      <c r="H83" s="3">
+        <v>800</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>16</v>
@@ -3269,8 +3467,11 @@
       <c r="N83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,25 +3672,28 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E89" s="3">
         <v>7700</v>
       </c>
-      <c r="E89" s="3">
-        <v>5300</v>
-      </c>
       <c r="F89" s="3">
-        <v>19900</v>
+        <v>4900</v>
       </c>
       <c r="G89" s="3">
-        <v>16100</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>16</v>
+        <v>20300</v>
+      </c>
+      <c r="H89" s="3">
+        <v>17900</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>16</v>
@@ -3497,8 +3713,11 @@
       <c r="N89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,16 +3732,17 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-400</v>
       </c>
       <c r="F91" s="3">
         <v>-400</v>
@@ -3530,8 +3750,8 @@
       <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>16</v>
+      <c r="H91" s="3">
+        <v>-400</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>16</v>
@@ -3551,8 +3771,11 @@
       <c r="N91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,26 +3853,29 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E94" s="3">
         <v>5300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>16700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>2500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>3700</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>16</v>
       </c>
@@ -3665,8 +3894,11 @@
       <c r="N94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,26 +4075,29 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
         <v>2600</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>293200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-600</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>16</v>
       </c>
@@ -3871,25 +4116,28 @@
       <c r="N100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>16</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>16</v>
@@ -3909,25 +4157,28 @@
       <c r="N101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E102" s="3">
         <v>15600</v>
       </c>
-      <c r="E102" s="3">
-        <v>22000</v>
-      </c>
       <c r="F102" s="3">
-        <v>315600</v>
+        <v>21600</v>
       </c>
       <c r="G102" s="3">
-        <v>19300</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>16</v>
+        <v>316000</v>
+      </c>
+      <c r="H102" s="3">
+        <v>21000</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>16</v>
@@ -3945,6 +4196,9 @@
         <v>16</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/POSH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/POSH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
   <si>
     <t>POSH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,219 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>89100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>90900</v>
+      </c>
+      <c r="F8" s="3">
         <v>83600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>79700</v>
       </c>
-      <c r="F8" s="3">
-        <v>81800</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>81600</v>
+      </c>
+      <c r="I8" s="3">
         <v>80700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>68800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>68800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>66900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>57100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>54700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>50000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>47600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>52900</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>30400</v>
+      </c>
+      <c r="F9" s="3">
         <v>29700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>25300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>25700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>27900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>23500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>21500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>19900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>18400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>18400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>15800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>14900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>58200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>60500</v>
+      </c>
+      <c r="F10" s="3">
         <v>53900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>54400</v>
       </c>
-      <c r="F10" s="3">
-        <v>56100</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
+        <v>55900</v>
+      </c>
+      <c r="I10" s="3">
         <v>52800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>45300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>47300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>47000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>38700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>36300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>34200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>32700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>37900</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,49 +893,57 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>16100</v>
+      </c>
+      <c r="F12" s="3">
         <v>15100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>12300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>12400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>18800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>7800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>8100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>7100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>7100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>6300</v>
-      </c>
-      <c r="M12" s="3">
-        <v>6300</v>
-      </c>
-      <c r="N12" s="3">
-        <v>6200</v>
       </c>
       <c r="O12" s="3">
         <v>6300</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3">
+        <v>6200</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -949,8 +983,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -964,14 +1004,14 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>1600</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>16</v>
       </c>
@@ -984,14 +1024,20 @@
       <c r="M14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -999,10 +1045,10 @@
         <v>1000</v>
       </c>
       <c r="E15" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F15" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G15" s="3">
         <v>800</v>
@@ -1014,25 +1060,31 @@
         <v>800</v>
       </c>
       <c r="J15" s="3">
+        <v>800</v>
+      </c>
+      <c r="K15" s="3">
+        <v>800</v>
+      </c>
+      <c r="L15" s="3">
         <v>700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1097,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>105300</v>
+      </c>
+      <c r="F17" s="3">
         <v>97300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>86900</v>
       </c>
-      <c r="F17" s="3">
-        <v>84600</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>84000</v>
+      </c>
+      <c r="I17" s="3">
         <v>102500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>65500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>57100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>45500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>68300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>69800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>62700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>61100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>61500</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-13700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-7200</v>
       </c>
-      <c r="F18" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I18" s="3">
         <v>-21800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>3300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>11700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>21400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-11200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-15100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-12700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-13500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1144,90 +1210,104 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F20" s="3">
         <v>-100</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-52200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-5100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>400</v>
-      </c>
-      <c r="M20" s="3">
-        <v>300</v>
       </c>
       <c r="N20" s="3">
         <v>400</v>
       </c>
       <c r="O20" s="3">
+        <v>300</v>
+      </c>
+      <c r="P20" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-12700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-6400</v>
       </c>
-      <c r="F21" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I21" s="3">
         <v>-73200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="3">
         <v>-12600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-11000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,90 +1347,108 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-13700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-7200</v>
       </c>
-      <c r="F23" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="I23" s="3">
         <v>-74000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>10900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>21200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-10900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-14700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-12400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-13000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-8400</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
       </c>
       <c r="J24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1488,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-13600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-7200</v>
       </c>
-      <c r="F26" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="I26" s="3">
         <v>-74100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>10800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>21100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-11000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-14700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-12400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-13100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-13600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-7200</v>
       </c>
-      <c r="F27" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="I27" s="3">
         <v>-74100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>21100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-11000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-14700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-12400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-13100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1770,108 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="F32" s="3">
         <v>100</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
         <v>52200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>5100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-300</v>
       </c>
       <c r="N32" s="3">
         <v>-400</v>
       </c>
       <c r="O32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-13600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-7200</v>
       </c>
-      <c r="F33" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="I33" s="3">
         <v>-74100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>21100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-11000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-14700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-12400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-13100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1911,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-13600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-7200</v>
       </c>
-      <c r="F35" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="I35" s="3">
         <v>-74100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>21100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-11000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-14700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-12400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-13100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,35 +2052,37 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>581200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>596600</v>
+      </c>
+      <c r="F41" s="3">
         <v>581500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>589000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>573400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>551400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>238900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>216600</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>16</v>
       </c>
@@ -1921,35 +2095,41 @@
       <c r="O41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>6100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>23300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>26200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>30400</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>16</v>
       </c>
@@ -1962,8 +2142,14 @@
       <c r="O42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2003,8 +2189,14 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,35 +2236,41 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F45" s="3">
         <v>9700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>9300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>9400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>11300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>7900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>8400</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2085,35 +2283,41 @@
       <c r="O45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>591100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>609000</v>
+      </c>
+      <c r="F46" s="3">
         <v>591300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>598400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>588900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>586000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>273000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>255400</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2126,8 +2330,14 @@
       <c r="O46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,35 +2377,41 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>15300</v>
+      </c>
+      <c r="F48" s="3">
         <v>7400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>7900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>7900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>8300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>8400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>8900</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2208,20 +2424,26 @@
       <c r="O48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F49" s="3">
         <v>8400</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2234,11 +2456,11 @@
       <c r="J49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2249,8 +2471,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2565,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2340,26 +2580,26 @@
         <v>1700</v>
       </c>
       <c r="E52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G52" s="3">
         <v>1800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>3200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>7000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>5300</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2372,8 +2612,14 @@
       <c r="O52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,35 +2659,41 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>615000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>634100</v>
+      </c>
+      <c r="F54" s="3">
         <v>608700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>608100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>599500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>597500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>288500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>269600</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2454,8 +2706,14 @@
       <c r="O54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,35 +2748,37 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>13200</v>
+      </c>
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>10600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>15100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>15600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>12300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>13300</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>16</v>
       </c>
@@ -2529,8 +2791,14 @@
       <c r="O57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2570,35 +2838,41 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>193100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>200000</v>
+      </c>
+      <c r="F59" s="3">
         <v>186200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>175400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>163900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>166700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>153100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>139300</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>16</v>
       </c>
@@ -2611,35 +2885,41 @@
       <c r="O59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>204200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>213200</v>
+      </c>
+      <c r="F60" s="3">
         <v>187800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>186000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>179100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>182200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>165400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>152700</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>16</v>
       </c>
@@ -2652,8 +2932,14 @@
       <c r="O60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2670,17 +2956,17 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>55400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>50800</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2693,35 +2979,41 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F62" s="3">
         <v>3200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>3800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>4400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>4600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>8300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>7000</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>16</v>
       </c>
@@ -2734,8 +3026,14 @@
       <c r="O62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,35 +3167,41 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>210300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>220500</v>
+      </c>
+      <c r="F66" s="3">
         <v>191100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>189800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>183400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>186800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>229100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>210500</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>16</v>
       </c>
@@ -2898,8 +3214,14 @@
       <c r="O66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3015,17 +3351,17 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>156200</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>156200</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3038,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,35 +3421,41 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-258700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-235900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-221800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-211200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-204000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-201000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-123500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-122400</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3120,8 +3468,14 @@
       <c r="O72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,35 +3609,41 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>404700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>413600</v>
+      </c>
+      <c r="F76" s="3">
         <v>417600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>418200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>416100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>410700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-96800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-97100</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>16</v>
       </c>
@@ -3284,8 +3656,14 @@
       <c r="O76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3703,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-13600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-7200</v>
       </c>
-      <c r="F81" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="I81" s="3">
         <v>-74100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>21100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-11000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-14700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-12400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-13100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3825,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3438,10 +3836,10 @@
         <v>1000</v>
       </c>
       <c r="E83" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F83" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G83" s="3">
         <v>800</v>
@@ -3449,11 +3847,11 @@
       <c r="H83" s="3">
         <v>800</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>16</v>
+      <c r="I83" s="3">
+        <v>800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>800</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>16</v>
@@ -3470,8 +3868,14 @@
       <c r="O83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,32 +4103,38 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-4300</v>
       </c>
-      <c r="E89" s="3">
-        <v>7700</v>
-      </c>
-      <c r="F89" s="3">
-        <v>4900</v>
-      </c>
       <c r="G89" s="3">
+        <v>7000</v>
+      </c>
+      <c r="H89" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I89" s="3">
         <v>20300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>17900</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>16</v>
       </c>
@@ -3716,8 +4150,14 @@
       <c r="O89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,31 +4173,33 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G91" s="3">
         <v>-700</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-400</v>
       </c>
       <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>16</v>
+      <c r="I91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-400</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>16</v>
@@ -3774,8 +4216,14 @@
       <c r="O91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,32 +4310,38 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-6900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>5300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>16700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>2500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>3700</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>16</v>
       </c>
@@ -3897,8 +4357,14 @@
       <c r="O94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,32 +4564,38 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>2600</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>293200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-600</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>16</v>
       </c>
@@ -4119,31 +4611,37 @@
       <c r="O100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>16</v>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>16</v>
@@ -4160,32 +4658,38 @@
       <c r="O101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>15100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-10600</v>
       </c>
-      <c r="E102" s="3">
-        <v>15600</v>
-      </c>
-      <c r="F102" s="3">
-        <v>21600</v>
-      </c>
       <c r="G102" s="3">
+        <v>14900</v>
+      </c>
+      <c r="H102" s="3">
+        <v>22300</v>
+      </c>
+      <c r="I102" s="3">
         <v>316000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>21000</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>16</v>
       </c>
@@ -4199,6 +4703,12 @@
         <v>16</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>16</v>
       </c>
     </row>
